--- a/samples/API 문서.xlsx
+++ b/samples/API 문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON\Desktop\SPARTA\my_project\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F090ED-2DB1-4A5C-B4E3-2E88F34D40C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2770D32F-D4FD-4AEF-A11F-0E9301DBC097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>프로젝트</t>
   </si>
@@ -274,6 +274,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>/learninglist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">(JSON </t>
     </r>
@@ -309,7 +313,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, 'review_vocacount'= score별</t>
+      <t>, 'review_vocacount'= score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별</t>
     </r>
     <r>
       <rPr>
@@ -539,59 +552,59 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,178 +842,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="E5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
